--- a/Данные/Оценка тур потока с 2022.xlsx
+++ b/Данные/Оценка тур потока с 2022.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Содержание" sheetId="2" r:id="rId1"/>
-    <sheet name="1.2022" sheetId="3" r:id="rId2"/>
-    <sheet name="2.2022" sheetId="1" r:id="rId3"/>
-    <sheet name="2.2023" sheetId="4" r:id="rId4"/>
+    <sheet name="1.2022" sheetId="3" r:id="rId1"/>
+    <sheet name="2.2022" sheetId="1" r:id="rId2"/>
+    <sheet name="2.2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="114">
   <si>
     <t>Российская Федерация</t>
   </si>
@@ -322,45 +321,18 @@
     <t>январь-март 2022</t>
   </si>
   <si>
-    <t>Ответственный исполнитель:</t>
-  </si>
-  <si>
-    <t>Муллокандов Борис Фирузович</t>
-  </si>
-  <si>
     <t>январь-апрель 2022</t>
   </si>
   <si>
-    <t>8 (495) 568-00-42 (доб. 99-114)</t>
-  </si>
-  <si>
     <t>январь-май 2022</t>
   </si>
   <si>
-    <t>Содержание:</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2022 год</t>
-  </si>
-  <si>
-    <t>Месячные (оперативные) данные</t>
-  </si>
-  <si>
     <t>К содержанию</t>
   </si>
   <si>
     <t>январь-июнь 2022</t>
   </si>
   <si>
-    <t>Квартальные данные</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
     <t>январь-июль 2022</t>
   </si>
   <si>
@@ -368,23 +340,6 @@
   </si>
   <si>
     <t>январь-сентябрь 2022</t>
-  </si>
-  <si>
-    <t>2023 год</t>
-  </si>
-  <si>
-    <r>
-      <t>Обновлено:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 03.03.2023</t>
-    </r>
   </si>
   <si>
     <t>январь 2023</t>
@@ -481,7 +436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
@@ -489,7 +444,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,33 +515,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -594,14 +522,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -716,16 +636,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -755,42 +675,14 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -817,6 +709,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1024,7 +919,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,7 +954,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1268,183 +1163,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
-    <col min="2" max="18" width="8.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-    </row>
-    <row r="17" spans="14:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N17" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B5:M5" location="'1.2022'!A1" display="2022 год"/>
-    <hyperlink ref="B9" location="'2.2022'!A1" display="2022 год"/>
-    <hyperlink ref="C9" location="'2.2023'!A1" display="2023 год"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
@@ -1458,21 +1179,21 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="23" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="28"/>
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="16"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="8" t="s">
@@ -1487,13 +1208,13 @@
         <v>100</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1230,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1525,7 +1246,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -1541,7 +1262,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1557,7 +1278,7 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1294,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1589,7 +1310,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1605,7 +1326,7 @@
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1621,7 +1342,7 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1358,7 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1653,7 +1374,7 @@
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +1390,7 @@
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -1685,7 +1406,7 @@
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1701,7 +1422,7 @@
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1717,7 +1438,7 @@
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1454,7 @@
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1749,7 +1470,7 @@
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -1765,7 +1486,7 @@
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -1781,7 +1502,7 @@
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1518,7 @@
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
@@ -1813,7 +1534,7 @@
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:6" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -1829,7 +1550,7 @@
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -1845,7 +1566,7 @@
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
@@ -1861,7 +1582,7 @@
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +1598,7 @@
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1893,7 +1614,7 @@
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
@@ -1909,7 +1630,7 @@
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -1925,7 +1646,7 @@
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
@@ -1941,7 +1662,7 @@
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
@@ -1957,7 +1678,7 @@
       <c r="E33"/>
       <c r="F33"/>
     </row>
-    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
@@ -1973,7 +1694,7 @@
       <c r="E34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
@@ -1989,7 +1710,7 @@
       <c r="E35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
@@ -2005,7 +1726,7 @@
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
@@ -2021,7 +1742,7 @@
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
@@ -2037,7 +1758,7 @@
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
@@ -2053,7 +1774,7 @@
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
@@ -2069,7 +1790,7 @@
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
@@ -2085,7 +1806,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
@@ -2101,7 +1822,7 @@
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
@@ -2117,7 +1838,7 @@
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
@@ -2133,7 +1854,7 @@
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
@@ -2149,7 +1870,7 @@
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
@@ -2165,7 +1886,7 @@
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:6" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>42</v>
       </c>
@@ -2181,7 +1902,7 @@
       <c r="E47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>43</v>
       </c>
@@ -2197,7 +1918,7 @@
       <c r="E48"/>
       <c r="F48"/>
     </row>
-    <row r="49" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>44</v>
       </c>
@@ -2213,7 +1934,7 @@
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
@@ -2229,7 +1950,7 @@
       <c r="E50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
@@ -2245,7 +1966,7 @@
       <c r="E51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="1:6" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
@@ -2261,7 +1982,7 @@
       <c r="E52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
@@ -2277,7 +1998,7 @@
       <c r="E53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
@@ -2293,7 +2014,7 @@
       <c r="E54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="1:6" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>50</v>
       </c>
@@ -2309,7 +2030,7 @@
       <c r="E55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
@@ -2325,7 +2046,7 @@
       <c r="E56"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>52</v>
       </c>
@@ -2341,7 +2062,7 @@
       <c r="E57"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>53</v>
       </c>
@@ -2357,7 +2078,7 @@
       <c r="E58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>54</v>
       </c>
@@ -2373,7 +2094,7 @@
       <c r="E59"/>
       <c r="F59"/>
     </row>
-    <row r="60" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>55</v>
       </c>
@@ -2389,7 +2110,7 @@
       <c r="E60"/>
       <c r="F60"/>
     </row>
-    <row r="61" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>56</v>
       </c>
@@ -2405,7 +2126,7 @@
       <c r="E61"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>57</v>
       </c>
@@ -2421,7 +2142,7 @@
       <c r="E62"/>
       <c r="F62"/>
     </row>
-    <row r="63" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
@@ -2437,7 +2158,7 @@
       <c r="E63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>59</v>
       </c>
@@ -2453,7 +2174,7 @@
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
@@ -2469,7 +2190,7 @@
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>61</v>
       </c>
@@ -2485,7 +2206,7 @@
       <c r="E66"/>
       <c r="F66"/>
     </row>
-    <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
@@ -2501,7 +2222,7 @@
       <c r="E67"/>
       <c r="F67"/>
     </row>
-    <row r="68" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>63</v>
       </c>
@@ -2517,7 +2238,7 @@
       <c r="E68"/>
       <c r="F68"/>
     </row>
-    <row r="69" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
@@ -2533,7 +2254,7 @@
       <c r="E69"/>
       <c r="F69"/>
     </row>
-    <row r="70" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>65</v>
       </c>
@@ -2549,7 +2270,7 @@
       <c r="E70"/>
       <c r="F70"/>
     </row>
-    <row r="71" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>66</v>
       </c>
@@ -2565,7 +2286,7 @@
       <c r="E71"/>
       <c r="F71"/>
     </row>
-    <row r="72" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>67</v>
       </c>
@@ -2581,7 +2302,7 @@
       <c r="E72"/>
       <c r="F72"/>
     </row>
-    <row r="73" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>68</v>
       </c>
@@ -2597,7 +2318,7 @@
       <c r="E73"/>
       <c r="F73"/>
     </row>
-    <row r="74" spans="1:6" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>69</v>
       </c>
@@ -2613,7 +2334,7 @@
       <c r="E74"/>
       <c r="F74"/>
     </row>
-    <row r="75" spans="1:6" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>70</v>
       </c>
@@ -2629,7 +2350,7 @@
       <c r="E75"/>
       <c r="F75"/>
     </row>
-    <row r="76" spans="1:6" s="22" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="12" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>71</v>
       </c>
@@ -2645,7 +2366,7 @@
       <c r="E76"/>
       <c r="F76"/>
     </row>
-    <row r="77" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>72</v>
       </c>
@@ -2661,7 +2382,7 @@
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>73</v>
       </c>
@@ -2677,7 +2398,7 @@
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>74</v>
       </c>
@@ -2693,7 +2414,7 @@
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>75</v>
       </c>
@@ -2709,7 +2430,7 @@
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>76</v>
       </c>
@@ -2725,7 +2446,7 @@
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>77</v>
       </c>
@@ -2741,7 +2462,7 @@
       <c r="E82"/>
       <c r="F82"/>
     </row>
-    <row r="83" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>78</v>
       </c>
@@ -2757,7 +2478,7 @@
       <c r="E83"/>
       <c r="F83"/>
     </row>
-    <row r="84" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>79</v>
       </c>
@@ -2773,7 +2494,7 @@
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>80</v>
       </c>
@@ -2789,7 +2510,7 @@
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>81</v>
       </c>
@@ -2805,7 +2526,7 @@
       <c r="E86"/>
       <c r="F86"/>
     </row>
-    <row r="87" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>82</v>
       </c>
@@ -2821,7 +2542,7 @@
       <c r="E87"/>
       <c r="F87"/>
     </row>
-    <row r="88" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>83</v>
       </c>
@@ -2837,7 +2558,7 @@
       <c r="E88"/>
       <c r="F88"/>
     </row>
-    <row r="89" spans="1:6" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" s="12" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>84</v>
       </c>
@@ -2853,7 +2574,7 @@
       <c r="E89"/>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>85</v>
       </c>
@@ -2869,7 +2590,7 @@
       <c r="E90"/>
       <c r="F90"/>
     </row>
-    <row r="91" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>86</v>
       </c>
@@ -2885,7 +2606,7 @@
       <c r="E91"/>
       <c r="F91"/>
     </row>
-    <row r="92" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>87</v>
       </c>
@@ -2901,7 +2622,7 @@
       <c r="E92"/>
       <c r="F92"/>
     </row>
-    <row r="93" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>88</v>
       </c>
@@ -2917,7 +2638,7 @@
       <c r="E93"/>
       <c r="F93"/>
     </row>
-    <row r="94" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>89</v>
       </c>
@@ -2933,7 +2654,7 @@
       <c r="E94"/>
       <c r="F94"/>
     </row>
-    <row r="95" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>90</v>
       </c>
@@ -2949,7 +2670,7 @@
       <c r="E95"/>
       <c r="F95"/>
     </row>
-    <row r="96" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>91</v>
       </c>
@@ -2965,7 +2686,7 @@
       <c r="E96"/>
       <c r="F96"/>
     </row>
-    <row r="97" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>92</v>
       </c>
@@ -2981,7 +2702,7 @@
       <c r="E97"/>
       <c r="F97"/>
     </row>
-    <row r="98" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>93</v>
       </c>
@@ -2997,7 +2718,7 @@
       <c r="E98"/>
       <c r="F98"/>
     </row>
-    <row r="99" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>94</v>
       </c>
@@ -3013,7 +2734,7 @@
       <c r="E99"/>
       <c r="F99"/>
     </row>
-    <row r="100" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>95</v>
       </c>
@@ -3044,7 +2765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
@@ -3074,11 +2795,11 @@
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="23" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="28"/>
+    <row r="1" spans="1:26" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="16"/>
       <c r="L1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -3094,21 +2815,21 @@
       <c r="Z1"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:26" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M3" s="8" t="s">
@@ -3132,38 +2853,38 @@
       <c r="B4" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -7103,8 +6824,8 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
-        <v>122</v>
+      <c r="A101" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -7122,7 +6843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
@@ -7135,55 +6856,55 @@
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="22" customWidth="1"/>
-    <col min="5" max="13" width="14.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="12" customWidth="1"/>
+    <col min="5" max="13" width="14.7109375" style="12" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+    <row r="1" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="29"/>
+      <c r="A2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -7193,7 +6914,7 @@
       <c r="B5" s="7">
         <v>8616499</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -7202,7 +6923,7 @@
       <c r="B6" s="7">
         <v>2908033</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -7211,7 +6932,7 @@
       <c r="B7" s="6">
         <v>63539</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -7220,7 +6941,7 @@
       <c r="B8" s="6">
         <v>33500</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -7229,7 +6950,7 @@
       <c r="B9" s="6">
         <v>63442</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -7238,7 +6959,7 @@
       <c r="B10" s="6">
         <v>78357</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -7247,7 +6968,7 @@
       <c r="B11" s="6">
         <v>21454</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -7256,7 +6977,7 @@
       <c r="B12" s="6">
         <v>55310</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -7265,7 +6986,7 @@
       <c r="B13" s="6">
         <v>21573</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -7274,7 +6995,7 @@
       <c r="B14" s="6">
         <v>21410</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -7283,7 +7004,7 @@
       <c r="B15" s="6">
         <v>29806</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -7292,7 +7013,7 @@
       <c r="B16" s="6">
         <v>947635</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -7301,7 +7022,7 @@
       <c r="B17" s="6">
         <v>21050</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -7310,7 +7031,7 @@
       <c r="B18" s="6">
         <v>50519</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -7319,7 +7040,7 @@
       <c r="B19" s="6">
         <v>34403</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -7328,7 +7049,7 @@
       <c r="B20" s="6">
         <v>16684</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -7337,7 +7058,7 @@
       <c r="B21" s="6">
         <v>65331</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -7346,7 +7067,7 @@
       <c r="B22" s="6">
         <v>46663</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -7355,7 +7076,7 @@
       <c r="B23" s="6">
         <v>75449</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -7364,7 +7085,7 @@
       <c r="B24" s="6">
         <v>1261908</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -7373,7 +7094,7 @@
       <c r="B25" s="7">
         <v>1839306</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -7382,7 +7103,7 @@
       <c r="B26" s="6">
         <v>49620</v>
       </c>
-      <c r="E26" s="25"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -7391,7 +7112,7 @@
       <c r="B27" s="6">
         <v>23910</v>
       </c>
-      <c r="E27" s="25"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -7400,7 +7121,7 @@
       <c r="B28" s="6">
         <v>70992</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -7409,7 +7130,7 @@
       <c r="B29" s="6">
         <v>832</v>
       </c>
-      <c r="E29" s="25"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -7418,7 +7139,7 @@
       <c r="B30" s="6">
         <v>70160</v>
       </c>
-      <c r="E30" s="25"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -7427,7 +7148,7 @@
       <c r="B31" s="6">
         <v>100015</v>
       </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -7436,7 +7157,7 @@
       <c r="B32" s="6">
         <v>35342</v>
       </c>
-      <c r="E32" s="25"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -7445,7 +7166,7 @@
       <c r="B33" s="6">
         <v>720977</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -7454,7 +7175,7 @@
       <c r="B34" s="6">
         <v>60189</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -7463,7 +7184,7 @@
       <c r="B35" s="6">
         <v>56831</v>
       </c>
-      <c r="E35" s="25"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -7472,7 +7193,7 @@
       <c r="B36" s="6">
         <v>41478</v>
       </c>
-      <c r="E36" s="25"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -7481,7 +7202,7 @@
       <c r="B37" s="6">
         <v>679952</v>
       </c>
-      <c r="E37" s="25"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -7490,7 +7211,7 @@
       <c r="B38" s="7">
         <v>1059722</v>
       </c>
-      <c r="E38" s="25"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -7499,7 +7220,7 @@
       <c r="B39" s="6">
         <v>8630</v>
       </c>
-      <c r="E39" s="25"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -7508,7 +7229,7 @@
       <c r="B40" s="6">
         <v>8076</v>
       </c>
-      <c r="E40" s="25"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -7517,7 +7238,7 @@
       <c r="B41" s="6">
         <v>134741</v>
       </c>
-      <c r="E41" s="25"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -7526,7 +7247,7 @@
       <c r="B42" s="6">
         <v>719121</v>
       </c>
-      <c r="E42" s="25"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -7535,7 +7256,7 @@
       <c r="B43" s="6">
         <v>19316</v>
       </c>
-      <c r="E43" s="25"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -7544,7 +7265,7 @@
       <c r="B44" s="6">
         <v>36815</v>
       </c>
-      <c r="E44" s="25"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -7553,7 +7274,7 @@
       <c r="B45" s="6">
         <v>106603</v>
       </c>
-      <c r="E45" s="25"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -7562,7 +7283,7 @@
       <c r="B46" s="6">
         <v>26420</v>
       </c>
-      <c r="E46" s="25"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -7571,7 +7292,7 @@
       <c r="B47" s="7">
         <v>199808</v>
       </c>
-      <c r="E47" s="25"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -7580,7 +7301,7 @@
       <c r="B48" s="6">
         <v>6826</v>
       </c>
-      <c r="E48" s="25"/>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -7589,7 +7310,7 @@
       <c r="B49" s="6">
         <v>2819</v>
       </c>
-      <c r="E49" s="25"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -7598,7 +7319,7 @@
       <c r="B50" s="6">
         <v>22466</v>
       </c>
-      <c r="E50" s="25"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -7607,7 +7328,7 @@
       <c r="B51" s="6">
         <v>19251</v>
       </c>
-      <c r="E51" s="25"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -7616,7 +7337,7 @@
       <c r="B52" s="6">
         <v>11695</v>
       </c>
-      <c r="E52" s="25"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -7625,7 +7346,7 @@
       <c r="B53" s="6">
         <v>5959</v>
       </c>
-      <c r="E53" s="25"/>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -7634,7 +7355,7 @@
       <c r="B54" s="6">
         <v>130792</v>
       </c>
-      <c r="E54" s="25"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -7643,7 +7364,7 @@
       <c r="B55" s="7">
         <v>1035072</v>
       </c>
-      <c r="E55" s="25"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -7652,7 +7373,7 @@
       <c r="B56" s="6">
         <v>125714</v>
       </c>
-      <c r="E56" s="25"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -7661,7 +7382,7 @@
       <c r="B57" s="6">
         <v>27804</v>
       </c>
-      <c r="E57" s="25"/>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -7670,7 +7391,7 @@
       <c r="B58" s="6">
         <v>20605</v>
       </c>
-      <c r="E58" s="25"/>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -7679,7 +7400,7 @@
       <c r="B59" s="6">
         <v>264511</v>
       </c>
-      <c r="E59" s="25"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -7688,7 +7409,7 @@
       <c r="B60" s="6">
         <v>42901</v>
       </c>
-      <c r="E60" s="25"/>
+      <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -7697,7 +7418,7 @@
       <c r="B61" s="6">
         <v>46252</v>
       </c>
-      <c r="E61" s="25"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -7706,7 +7427,7 @@
       <c r="B62" s="6">
         <v>74748</v>
       </c>
-      <c r="E62" s="25"/>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -7715,7 +7436,7 @@
       <c r="B63" s="6">
         <v>60058</v>
       </c>
-      <c r="E63" s="25"/>
+      <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -7724,7 +7445,7 @@
       <c r="B64" s="6">
         <v>159926</v>
       </c>
-      <c r="E64" s="25"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -7733,7 +7454,7 @@
       <c r="B65" s="6">
         <v>26669</v>
       </c>
-      <c r="E65" s="25"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -7742,7 +7463,7 @@
       <c r="B66" s="6">
         <v>25683</v>
       </c>
-      <c r="E66" s="25"/>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -7751,7 +7472,7 @@
       <c r="B67" s="6">
         <v>78310</v>
       </c>
-      <c r="E67" s="25"/>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -7760,7 +7481,7 @@
       <c r="B68" s="6">
         <v>49380</v>
       </c>
-      <c r="E68" s="25"/>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
@@ -7769,7 +7490,7 @@
       <c r="B69" s="6">
         <v>32511</v>
       </c>
-      <c r="E69" s="25"/>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -7778,7 +7499,7 @@
       <c r="B70" s="7">
         <v>606543</v>
       </c>
-      <c r="E70" s="25"/>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -7787,7 +7508,7 @@
       <c r="B71" s="6">
         <v>47233</v>
       </c>
-      <c r="E71" s="25"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -7796,7 +7517,7 @@
       <c r="B72" s="6">
         <v>258741</v>
       </c>
-      <c r="E72" s="25"/>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -7805,7 +7526,7 @@
       <c r="B73" s="6">
         <v>189959</v>
       </c>
-      <c r="E73" s="25"/>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -7814,7 +7535,7 @@
       <c r="B74" s="6">
         <v>64024</v>
       </c>
-      <c r="E74" s="25"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -7823,7 +7544,7 @@
       <c r="B75" s="6">
         <v>22868</v>
       </c>
-      <c r="E75" s="25"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
@@ -7832,7 +7553,7 @@
       <c r="B76" s="6">
         <v>103067</v>
       </c>
-      <c r="E76" s="25"/>
+      <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -7841,7 +7562,7 @@
       <c r="B77" s="6">
         <v>110610</v>
       </c>
-      <c r="E77" s="25"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -7850,7 +7571,7 @@
       <c r="B78" s="7">
         <v>674236</v>
       </c>
-      <c r="E78" s="25"/>
+      <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -7859,7 +7580,7 @@
       <c r="B79" s="6">
         <v>10324</v>
       </c>
-      <c r="E79" s="25"/>
+      <c r="E79" s="14"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
@@ -7868,7 +7589,7 @@
       <c r="B80" s="6">
         <v>1787</v>
       </c>
-      <c r="E80" s="25"/>
+      <c r="E80" s="14"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -7877,7 +7598,7 @@
       <c r="B81" s="6">
         <v>23364</v>
       </c>
-      <c r="E81" s="25"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
@@ -7886,7 +7607,7 @@
       <c r="B82" s="6">
         <v>122274</v>
       </c>
-      <c r="E82" s="25"/>
+      <c r="E82" s="14"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
@@ -7895,7 +7616,7 @@
       <c r="B83" s="6">
         <v>120544</v>
       </c>
-      <c r="E83" s="25"/>
+      <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
@@ -7904,7 +7625,7 @@
       <c r="B84" s="6">
         <v>99094</v>
       </c>
-      <c r="E84" s="25"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
@@ -7913,7 +7634,7 @@
       <c r="B85" s="6">
         <v>115583</v>
       </c>
-      <c r="E85" s="25"/>
+      <c r="E85" s="14"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
@@ -7922,7 +7643,7 @@
       <c r="B86" s="6">
         <v>101603</v>
       </c>
-      <c r="E86" s="25"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
@@ -7931,7 +7652,7 @@
       <c r="B87" s="6">
         <v>57448</v>
       </c>
-      <c r="E87" s="25"/>
+      <c r="E87" s="14"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
@@ -7940,7 +7661,7 @@
       <c r="B88" s="6">
         <v>22215</v>
       </c>
-      <c r="E88" s="25"/>
+      <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -7949,7 +7670,7 @@
       <c r="B89" s="7">
         <v>293779</v>
       </c>
-      <c r="E89" s="25"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -7958,7 +7679,7 @@
       <c r="B90" s="6">
         <v>43448</v>
       </c>
-      <c r="E90" s="25"/>
+      <c r="E90" s="14"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
@@ -7967,7 +7688,7 @@
       <c r="B91" s="6">
         <v>11630</v>
       </c>
-      <c r="E91" s="25"/>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
@@ -7976,7 +7697,7 @@
       <c r="B92" s="6">
         <v>16174</v>
       </c>
-      <c r="E92" s="25"/>
+      <c r="E92" s="14"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
@@ -7985,7 +7706,7 @@
       <c r="B93" s="6">
         <v>14461</v>
       </c>
-      <c r="E93" s="25"/>
+      <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
@@ -7994,7 +7715,7 @@
       <c r="B94" s="6">
         <v>94391</v>
       </c>
-      <c r="E94" s="25"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
@@ -8003,7 +7724,7 @@
       <c r="B95" s="6">
         <v>30446</v>
       </c>
-      <c r="E95" s="25"/>
+      <c r="E95" s="14"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
@@ -8012,7 +7733,7 @@
       <c r="B96" s="6">
         <v>17971</v>
       </c>
-      <c r="E96" s="25"/>
+      <c r="E96" s="14"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
@@ -8021,7 +7742,7 @@
       <c r="B97" s="6">
         <v>5898</v>
       </c>
-      <c r="E97" s="25"/>
+      <c r="E97" s="14"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
@@ -8030,7 +7751,7 @@
       <c r="B98" s="6">
         <v>53702</v>
       </c>
-      <c r="E98" s="25"/>
+      <c r="E98" s="14"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
@@ -8039,7 +7760,7 @@
       <c r="B99" s="6">
         <v>1866</v>
       </c>
-      <c r="E99" s="25"/>
+      <c r="E99" s="14"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -8048,11 +7769,11 @@
       <c r="B100" s="6">
         <v>3792</v>
       </c>
-      <c r="E100" s="25"/>
+      <c r="E100" s="14"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
-        <v>122</v>
+      <c r="A101" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
